--- a/medicine/Enfance/Conte_pis_raconte/Conte_pis_raconte.xlsx
+++ b/medicine/Enfance/Conte_pis_raconte/Conte_pis_raconte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Conte pis raconte est une série web qui présente la littérature jeunesse francophone du Québec et d’ailleurs. Elle présente aussi les artisan.e.s, auteurs.trices et illustrateurs.trices québécois par différents segments.
@@ -513,9 +525,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série, animée par Pierre-Yves Lord, est produite en français[1],[2],[3],[4]. La comédienne Catherine Trudeau y anime aussi un segment récurrent[5],[6],[7],[8]. Plusieurs auteurs et illustrateurs sont aussi présentés dans des segments tels que des ateliers d’illustrateurs et d’illustratrices, des entrevues d’auteurs et d’autrices faites par des enfants, des suggestions de livres et des sketches animés[9],[10],[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série, animée par Pierre-Yves Lord, est produite en français. La comédienne Catherine Trudeau y anime aussi un segment récurrent. Plusieurs auteurs et illustrateurs sont aussi présentés dans des segments tels que des ateliers d’illustrateurs et d’illustratrices, des entrevues d’auteurs et d’autrices faites par des enfants, des suggestions de livres et des sketches animés.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série est produite par Saturne 5[13] et a été diffusée en entier le 16 février 2022 sur ICI Tou.TV.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est produite par Saturne 5 et a été diffusée en entier le 16 février 2022 sur ICI Tou.TV.
 </t>
         </is>
       </c>
